--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2100.364820069904</v>
+        <v>2335.187845331783</v>
       </c>
       <c r="AB2" t="n">
-        <v>2873.81180837578</v>
+        <v>3195.107031199991</v>
       </c>
       <c r="AC2" t="n">
-        <v>2599.5392428046</v>
+        <v>2890.170500503025</v>
       </c>
       <c r="AD2" t="n">
-        <v>2100364.820069904</v>
+        <v>2335187.845331782</v>
       </c>
       <c r="AE2" t="n">
-        <v>2873811.80837578</v>
+        <v>3195107.031199991</v>
       </c>
       <c r="AF2" t="n">
         <v>3.328761350056438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.15</v>
       </c>
       <c r="AH2" t="n">
-        <v>2599539.2428046</v>
+        <v>2890170.500503025</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>772.8119928765808</v>
+        <v>899.9612841646242</v>
       </c>
       <c r="AB3" t="n">
-        <v>1057.395462712626</v>
+        <v>1231.366732483765</v>
       </c>
       <c r="AC3" t="n">
-        <v>956.4791238151854</v>
+        <v>1113.846819769577</v>
       </c>
       <c r="AD3" t="n">
-        <v>772811.9928765808</v>
+        <v>899961.2841646242</v>
       </c>
       <c r="AE3" t="n">
-        <v>1057395.462712626</v>
+        <v>1231366.732483765</v>
       </c>
       <c r="AF3" t="n">
         <v>6.243546381937926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.1375</v>
       </c>
       <c r="AH3" t="n">
-        <v>956479.1238151854</v>
+        <v>1113846.819769577</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>594.1664867632112</v>
+        <v>701.7387355105576</v>
       </c>
       <c r="AB4" t="n">
-        <v>812.9647999648173</v>
+        <v>960.1498964536132</v>
       </c>
       <c r="AC4" t="n">
-        <v>735.3765804594374</v>
+        <v>868.5145379149228</v>
       </c>
       <c r="AD4" t="n">
-        <v>594166.4867632112</v>
+        <v>701738.7355105577</v>
       </c>
       <c r="AE4" t="n">
-        <v>812964.7999648174</v>
+        <v>960149.8964536132</v>
       </c>
       <c r="AF4" t="n">
         <v>7.344972000084925e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.37083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>735376.5804594373</v>
+        <v>868514.5379149228</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>511.6781736121527</v>
+        <v>609.5633863156362</v>
       </c>
       <c r="AB5" t="n">
-        <v>700.1006507839999</v>
+        <v>834.0315171957136</v>
       </c>
       <c r="AC5" t="n">
-        <v>633.2840272706088</v>
+        <v>754.4327197651402</v>
       </c>
       <c r="AD5" t="n">
-        <v>511678.1736121527</v>
+        <v>609563.3863156362</v>
       </c>
       <c r="AE5" t="n">
-        <v>700100.6507839998</v>
+        <v>834031.5171957136</v>
       </c>
       <c r="AF5" t="n">
         <v>7.943523746745521e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.75833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>633284.0272706088</v>
+        <v>754432.7197651402</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>497.6752752651229</v>
+        <v>595.4590027421212</v>
       </c>
       <c r="AB6" t="n">
-        <v>680.9412675013183</v>
+        <v>814.7332773489427</v>
       </c>
       <c r="AC6" t="n">
-        <v>615.9531886380631</v>
+        <v>736.9762768440954</v>
       </c>
       <c r="AD6" t="n">
-        <v>497675.2752651229</v>
+        <v>595459.0027421212</v>
       </c>
       <c r="AE6" t="n">
-        <v>680941.2675013182</v>
+        <v>814733.2773489427</v>
       </c>
       <c r="AF6" t="n">
         <v>8.077246761260631e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.43333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>615953.1886380631</v>
+        <v>736976.2768440954</v>
       </c>
     </row>
   </sheetData>
@@ -3073,28 +3073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1316.05667850863</v>
+        <v>1499.952946941903</v>
       </c>
       <c r="AB2" t="n">
-        <v>1800.686807858471</v>
+        <v>2052.301795259657</v>
       </c>
       <c r="AC2" t="n">
-        <v>1628.831786196265</v>
+        <v>1856.432992343735</v>
       </c>
       <c r="AD2" t="n">
-        <v>1316056.67850863</v>
+        <v>1499952.946941903</v>
       </c>
       <c r="AE2" t="n">
-        <v>1800686.807858471</v>
+        <v>2052301.795259657</v>
       </c>
       <c r="AF2" t="n">
         <v>4.651663070398925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.92083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1628831.786196265</v>
+        <v>1856432.992343735</v>
       </c>
     </row>
     <row r="3">
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>610.6515986199436</v>
+        <v>726.7840230024601</v>
       </c>
       <c r="AB3" t="n">
-        <v>835.5204572790058</v>
+        <v>994.4179637201369</v>
       </c>
       <c r="AC3" t="n">
-        <v>755.7795574966234</v>
+        <v>899.5121089370642</v>
       </c>
       <c r="AD3" t="n">
-        <v>610651.5986199436</v>
+        <v>726784.0230024601</v>
       </c>
       <c r="AE3" t="n">
-        <v>835520.4572790058</v>
+        <v>994417.9637201369</v>
       </c>
       <c r="AF3" t="n">
         <v>7.532264984187519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>755779.5574966234</v>
+        <v>899512.1089370642</v>
       </c>
     </row>
     <row r="4">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>493.9802460136399</v>
+        <v>590.7184177070167</v>
       </c>
       <c r="AB4" t="n">
-        <v>675.8855654662536</v>
+        <v>808.2469997640616</v>
       </c>
       <c r="AC4" t="n">
-        <v>611.3799957095026</v>
+        <v>731.1090404883674</v>
       </c>
       <c r="AD4" t="n">
-        <v>493980.24601364</v>
+        <v>590718.4177070167</v>
       </c>
       <c r="AE4" t="n">
-        <v>675885.5654662537</v>
+        <v>808246.9997640615</v>
       </c>
       <c r="AF4" t="n">
         <v>8.576271944786535e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.025</v>
       </c>
       <c r="AH4" t="n">
-        <v>611379.9957095026</v>
+        <v>731109.0404883674</v>
       </c>
     </row>
     <row r="5">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>474.4104473286965</v>
+        <v>571.2159388297778</v>
       </c>
       <c r="AB5" t="n">
-        <v>649.1093035469289</v>
+        <v>781.5628477755781</v>
       </c>
       <c r="AC5" t="n">
-        <v>587.1592226470386</v>
+        <v>706.9715865142224</v>
       </c>
       <c r="AD5" t="n">
-        <v>474410.4473286966</v>
+        <v>571215.9388297778</v>
       </c>
       <c r="AE5" t="n">
-        <v>649109.3035469289</v>
+        <v>781562.8477755781</v>
       </c>
       <c r="AF5" t="n">
         <v>8.702393591033396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.73333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>587159.2226470386</v>
+        <v>706971.5865142224</v>
       </c>
     </row>
   </sheetData>
@@ -3688,28 +3688,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.6795220732623</v>
+        <v>592.9111375311998</v>
       </c>
       <c r="AB2" t="n">
-        <v>657.6869281845019</v>
+        <v>811.2471757634801</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.9182108279734</v>
+        <v>733.822883901175</v>
       </c>
       <c r="AD2" t="n">
-        <v>480679.5220732623</v>
+        <v>592911.1375311997</v>
       </c>
       <c r="AE2" t="n">
-        <v>657686.9281845018</v>
+        <v>811247.17576348</v>
       </c>
       <c r="AF2" t="n">
         <v>1.044092249166834e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>594918.2108279734</v>
+        <v>733822.883901175</v>
       </c>
     </row>
     <row r="3">
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.5408129195949</v>
+        <v>564.3837922488822</v>
       </c>
       <c r="AB3" t="n">
-        <v>631.5005019801968</v>
+        <v>772.2148034105625</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.2309803877273</v>
+        <v>698.5157063833411</v>
       </c>
       <c r="AD3" t="n">
-        <v>461540.8129195949</v>
+        <v>564383.7922488821</v>
       </c>
       <c r="AE3" t="n">
-        <v>631500.5019801968</v>
+        <v>772214.8034105625</v>
       </c>
       <c r="AF3" t="n">
         <v>1.082579092226651e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.14166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>571230.9803877273</v>
+        <v>698515.7063833411</v>
       </c>
     </row>
   </sheetData>
@@ -4091,28 +4091,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>689.2051214997467</v>
+        <v>821.9269378796703</v>
       </c>
       <c r="AB2" t="n">
-        <v>943.0008528199963</v>
+        <v>1124.596697264302</v>
       </c>
       <c r="AC2" t="n">
-        <v>853.0021749368645</v>
+        <v>1017.266766858774</v>
       </c>
       <c r="AD2" t="n">
-        <v>689205.1214997467</v>
+        <v>821926.9378796703</v>
       </c>
       <c r="AE2" t="n">
-        <v>943000.8528199963</v>
+        <v>1124596.697264302</v>
       </c>
       <c r="AF2" t="n">
         <v>7.742027153562633e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>853002.1749368645</v>
+        <v>1017266.766858774</v>
       </c>
     </row>
     <row r="3">
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>452.6443991820215</v>
+        <v>556.9185051765083</v>
       </c>
       <c r="AB3" t="n">
-        <v>619.328036222375</v>
+        <v>762.0004682929191</v>
       </c>
       <c r="AC3" t="n">
-        <v>560.2202376776688</v>
+        <v>689.2762130734163</v>
       </c>
       <c r="AD3" t="n">
-        <v>452644.3991820215</v>
+        <v>556918.5051765083</v>
       </c>
       <c r="AE3" t="n">
-        <v>619328.036222375</v>
+        <v>762000.4682929191</v>
       </c>
       <c r="AF3" t="n">
         <v>9.970475509925932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.82083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>560220.2376776688</v>
+        <v>689276.2130734164</v>
       </c>
     </row>
     <row r="4">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>454.1889114820426</v>
+        <v>558.4630174765297</v>
       </c>
       <c r="AB4" t="n">
-        <v>621.4413060903377</v>
+        <v>764.1137381608818</v>
       </c>
       <c r="AC4" t="n">
-        <v>562.131820035426</v>
+        <v>691.1877954311736</v>
       </c>
       <c r="AD4" t="n">
-        <v>454188.9114820426</v>
+        <v>558463.0174765297</v>
       </c>
       <c r="AE4" t="n">
-        <v>621441.3060903377</v>
+        <v>764113.7381608818</v>
       </c>
       <c r="AF4" t="n">
         <v>9.970475509925932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.82083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>562131.8200354261</v>
+        <v>691187.7954311736</v>
       </c>
     </row>
   </sheetData>
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>467.1137601982888</v>
+        <v>587.3115908460305</v>
       </c>
       <c r="AB2" t="n">
-        <v>639.1256543079878</v>
+        <v>803.5856289542664</v>
       </c>
       <c r="AC2" t="n">
-        <v>578.1283988793225</v>
+        <v>726.8925443663843</v>
       </c>
       <c r="AD2" t="n">
-        <v>467113.7601982888</v>
+        <v>587311.5908460305</v>
       </c>
       <c r="AE2" t="n">
-        <v>639125.6543079878</v>
+        <v>803585.6289542664</v>
       </c>
       <c r="AF2" t="n">
         <v>1.147896223066897e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>578128.3988793225</v>
+        <v>726892.5443663843</v>
       </c>
     </row>
   </sheetData>
@@ -4897,28 +4897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1479.59148796354</v>
+        <v>1673.66857671359</v>
       </c>
       <c r="AB2" t="n">
-        <v>2024.442348801288</v>
+        <v>2289.987183705981</v>
       </c>
       <c r="AC2" t="n">
-        <v>1831.232412354374</v>
+        <v>2071.43402091028</v>
       </c>
       <c r="AD2" t="n">
-        <v>1479591.48796354</v>
+        <v>1673668.57671359</v>
       </c>
       <c r="AE2" t="n">
-        <v>2024442.348801288</v>
+        <v>2289987.183705981</v>
       </c>
       <c r="AF2" t="n">
         <v>4.282281442562693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.13333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1831232.412354374</v>
+        <v>2071434.02091028</v>
       </c>
     </row>
     <row r="3">
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>653.3309690068501</v>
+        <v>769.7366281662861</v>
       </c>
       <c r="AB3" t="n">
-        <v>893.9162547233052</v>
+        <v>1053.187613040486</v>
       </c>
       <c r="AC3" t="n">
-        <v>808.6021419918557</v>
+        <v>952.6728654099994</v>
       </c>
       <c r="AD3" t="n">
-        <v>653330.96900685</v>
+        <v>769736.628166286</v>
       </c>
       <c r="AE3" t="n">
-        <v>893916.2547233052</v>
+        <v>1053187.613040485</v>
       </c>
       <c r="AF3" t="n">
         <v>7.162072475600063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>808602.1419918557</v>
+        <v>952672.8654099994</v>
       </c>
     </row>
     <row r="4">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>515.0530883406307</v>
+        <v>612.0750555211939</v>
       </c>
       <c r="AB4" t="n">
-        <v>704.7183580062328</v>
+        <v>837.4680938097825</v>
       </c>
       <c r="AC4" t="n">
-        <v>637.4610269965448</v>
+        <v>757.5413143304279</v>
       </c>
       <c r="AD4" t="n">
-        <v>515053.0883406306</v>
+        <v>612075.0555211939</v>
       </c>
       <c r="AE4" t="n">
-        <v>704718.3580062329</v>
+        <v>837468.0938097825</v>
       </c>
       <c r="AF4" t="n">
         <v>8.251244838374533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.30833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>637461.0269965448</v>
+        <v>757541.3143304279</v>
       </c>
     </row>
     <row r="5">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>480.0774499759019</v>
+        <v>577.1667369641694</v>
       </c>
       <c r="AB5" t="n">
-        <v>656.8631465793471</v>
+        <v>789.7049923137381</v>
       </c>
       <c r="AC5" t="n">
-        <v>594.1730497830298</v>
+        <v>714.336656205232</v>
       </c>
       <c r="AD5" t="n">
-        <v>480077.4499759019</v>
+        <v>577166.7369641694</v>
       </c>
       <c r="AE5" t="n">
-        <v>656863.1465793471</v>
+        <v>789704.9923137381</v>
       </c>
       <c r="AF5" t="n">
         <v>8.527559983583566e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.65416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>594173.0497830298</v>
+        <v>714336.656205232</v>
       </c>
     </row>
     <row r="6">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>481.5602859225104</v>
+        <v>578.6495729107781</v>
       </c>
       <c r="AB6" t="n">
-        <v>658.892028139602</v>
+        <v>791.733873873993</v>
       </c>
       <c r="AC6" t="n">
-        <v>596.0082977347272</v>
+        <v>716.1719041569294</v>
       </c>
       <c r="AD6" t="n">
-        <v>481560.2859225104</v>
+        <v>578649.5729107781</v>
       </c>
       <c r="AE6" t="n">
-        <v>658892.0281396019</v>
+        <v>791733.8738739931</v>
       </c>
       <c r="AF6" t="n">
         <v>8.526755572680483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.65416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>596008.2977347272</v>
+        <v>716171.9041569293</v>
       </c>
     </row>
   </sheetData>
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.9431838126443</v>
+        <v>608.3054373068295</v>
       </c>
       <c r="AB2" t="n">
-        <v>668.9936347433503</v>
+        <v>832.3103358650708</v>
       </c>
       <c r="AC2" t="n">
-        <v>605.1458211819078</v>
+        <v>752.8758055650007</v>
       </c>
       <c r="AD2" t="n">
-        <v>488943.1838126443</v>
+        <v>608305.4373068295</v>
       </c>
       <c r="AE2" t="n">
-        <v>668993.6347433503</v>
+        <v>832310.3358650708</v>
       </c>
       <c r="AF2" t="n">
         <v>1.178865515691593e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.48333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>605145.8211819078</v>
+        <v>752875.8055650007</v>
       </c>
     </row>
   </sheetData>
@@ -5915,28 +5915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>959.0330770810612</v>
+        <v>1112.346692392065</v>
       </c>
       <c r="AB2" t="n">
-        <v>1312.191365615611</v>
+        <v>1521.961817803474</v>
       </c>
       <c r="AC2" t="n">
-        <v>1186.957663353405</v>
+        <v>1376.707917999137</v>
       </c>
       <c r="AD2" t="n">
-        <v>959033.0770810612</v>
+        <v>1112346.692392065</v>
       </c>
       <c r="AE2" t="n">
-        <v>1312191.365615611</v>
+        <v>1521961.817803474</v>
       </c>
       <c r="AF2" t="n">
         <v>5.955728255711271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1186957.663353405</v>
+        <v>1376707.917999137</v>
       </c>
     </row>
     <row r="3">
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>511.9384999650563</v>
+        <v>617.3098963580946</v>
       </c>
       <c r="AB3" t="n">
-        <v>700.4568407848307</v>
+        <v>844.6306339877086</v>
       </c>
       <c r="AC3" t="n">
-        <v>633.6062229976761</v>
+        <v>764.020271726461</v>
       </c>
       <c r="AD3" t="n">
-        <v>511938.4999650563</v>
+        <v>617309.8963580946</v>
       </c>
       <c r="AE3" t="n">
-        <v>700456.8407848306</v>
+        <v>844630.6339877086</v>
       </c>
       <c r="AF3" t="n">
         <v>8.808328929020192e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>633606.2229976761</v>
+        <v>764020.271726461</v>
       </c>
     </row>
     <row r="4">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>467.8437837733057</v>
+        <v>563.6609018015316</v>
       </c>
       <c r="AB4" t="n">
-        <v>640.124504769693</v>
+        <v>771.2257128088219</v>
       </c>
       <c r="AC4" t="n">
-        <v>579.0319204548579</v>
+        <v>697.6210132004333</v>
       </c>
       <c r="AD4" t="n">
-        <v>467843.7837733057</v>
+        <v>563660.9018015317</v>
       </c>
       <c r="AE4" t="n">
-        <v>640124.504769693</v>
+        <v>771225.7128088218</v>
       </c>
       <c r="AF4" t="n">
         <v>9.277114522779992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.12916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>579031.9204548579</v>
+        <v>697621.0132004332</v>
       </c>
     </row>
     <row r="5">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>469.2825339496428</v>
+        <v>565.0996519778688</v>
       </c>
       <c r="AB5" t="n">
-        <v>642.0930662341356</v>
+        <v>773.1942742732642</v>
       </c>
       <c r="AC5" t="n">
-        <v>580.8126051760273</v>
+        <v>699.4016979216027</v>
       </c>
       <c r="AD5" t="n">
-        <v>469282.5339496428</v>
+        <v>565099.6519778688</v>
       </c>
       <c r="AE5" t="n">
-        <v>642093.0662341355</v>
+        <v>773194.2742732642</v>
       </c>
       <c r="AF5" t="n">
         <v>9.276666352996282e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.12916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>580812.6051760273</v>
+        <v>699401.6979216028</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1181.292789900162</v>
+        <v>1354.978252283121</v>
       </c>
       <c r="AB2" t="n">
-        <v>1616.296910101204</v>
+        <v>1853.941022195378</v>
       </c>
       <c r="AC2" t="n">
-        <v>1462.039801488105</v>
+        <v>1677.003493059617</v>
       </c>
       <c r="AD2" t="n">
-        <v>1181292.789900162</v>
+        <v>1354978.252283121</v>
       </c>
       <c r="AE2" t="n">
-        <v>1616296.910101204</v>
+        <v>1853941.022195378</v>
       </c>
       <c r="AF2" t="n">
         <v>5.046781920221471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.925</v>
       </c>
       <c r="AH2" t="n">
-        <v>1462039.801488105</v>
+        <v>1677003.493059617</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>581.2382613618818</v>
+        <v>687.3329363219068</v>
       </c>
       <c r="AB3" t="n">
-        <v>795.2758316176673</v>
+        <v>940.439246464695</v>
       </c>
       <c r="AC3" t="n">
-        <v>719.3758224247165</v>
+        <v>850.6850446968758</v>
       </c>
       <c r="AD3" t="n">
-        <v>581238.2613618817</v>
+        <v>687332.9363219067</v>
       </c>
       <c r="AE3" t="n">
-        <v>795275.8316176673</v>
+        <v>940439.246464695</v>
       </c>
       <c r="AF3" t="n">
         <v>7.91452162157783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>719375.8224247164</v>
+        <v>850685.0446968758</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>469.576767046328</v>
+        <v>575.6704309764958</v>
       </c>
       <c r="AB4" t="n">
-        <v>642.4956489376684</v>
+        <v>787.6576804490419</v>
       </c>
       <c r="AC4" t="n">
-        <v>581.1767659513634</v>
+        <v>712.4847369114822</v>
       </c>
       <c r="AD4" t="n">
-        <v>469576.7670463281</v>
+        <v>575670.4309764958</v>
       </c>
       <c r="AE4" t="n">
-        <v>642495.6489376684</v>
+        <v>787657.6804490419</v>
       </c>
       <c r="AF4" t="n">
         <v>8.857461847912587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AH4" t="n">
-        <v>581176.7659513635</v>
+        <v>712484.7369114822</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>469.2893430343485</v>
+        <v>575.3830069645163</v>
       </c>
       <c r="AB5" t="n">
-        <v>642.1023827242255</v>
+        <v>787.2644142355989</v>
       </c>
       <c r="AC5" t="n">
-        <v>580.8210325133789</v>
+        <v>712.1290034734977</v>
       </c>
       <c r="AD5" t="n">
-        <v>469289.3430343485</v>
+        <v>575383.0069645164</v>
       </c>
       <c r="AE5" t="n">
-        <v>642102.3827242255</v>
+        <v>787264.4142355989</v>
       </c>
       <c r="AF5" t="n">
         <v>8.882843819011773e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.84166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>580821.0325133789</v>
+        <v>712129.0034734977</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1859.865647826074</v>
+        <v>2074.580697507336</v>
       </c>
       <c r="AB2" t="n">
-        <v>2544.750230837114</v>
+        <v>2838.532834370468</v>
       </c>
       <c r="AC2" t="n">
-        <v>2301.8828403854</v>
+        <v>2567.627244564005</v>
       </c>
       <c r="AD2" t="n">
-        <v>1859865.647826074</v>
+        <v>2074580.697507336</v>
       </c>
       <c r="AE2" t="n">
-        <v>2544750.230837114</v>
+        <v>2838532.834370468</v>
       </c>
       <c r="AF2" t="n">
         <v>3.626394797641229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.18333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2301882.8403854</v>
+        <v>2567627.244564005</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>728.1476085103271</v>
+        <v>855.0302977895718</v>
       </c>
       <c r="AB3" t="n">
-        <v>996.2836815691475</v>
+        <v>1169.890174710197</v>
       </c>
       <c r="AC3" t="n">
-        <v>901.1997652931165</v>
+        <v>1058.237498387028</v>
       </c>
       <c r="AD3" t="n">
-        <v>728147.6085103272</v>
+        <v>855030.2977895718</v>
       </c>
       <c r="AE3" t="n">
-        <v>996283.6815691475</v>
+        <v>1169890.174710197</v>
       </c>
       <c r="AF3" t="n">
         <v>6.532125348116004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.52916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>901199.7652931164</v>
+        <v>1058237.498387028</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>570.9937229372564</v>
+        <v>668.5889183160449</v>
       </c>
       <c r="AB4" t="n">
-        <v>781.2588021879573</v>
+        <v>914.7928541013617</v>
       </c>
       <c r="AC4" t="n">
-        <v>706.6965586107536</v>
+        <v>827.4863080257616</v>
       </c>
       <c r="AD4" t="n">
-        <v>570993.7229372564</v>
+        <v>668588.9183160448</v>
       </c>
       <c r="AE4" t="n">
-        <v>781258.8021879572</v>
+        <v>914792.8541013617</v>
       </c>
       <c r="AF4" t="n">
         <v>7.620812906135338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.025</v>
       </c>
       <c r="AH4" t="n">
-        <v>706696.5586107536</v>
+        <v>827486.3080257615</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>495.4796520403258</v>
+        <v>593.1080018080379</v>
       </c>
       <c r="AB5" t="n">
-        <v>677.9371189410906</v>
+        <v>811.5165341520886</v>
       </c>
       <c r="AC5" t="n">
-        <v>613.2357518000746</v>
+        <v>734.0665351032219</v>
       </c>
       <c r="AD5" t="n">
-        <v>495479.6520403258</v>
+        <v>593108.0018080379</v>
       </c>
       <c r="AE5" t="n">
-        <v>677937.1189410907</v>
+        <v>811516.5341520887</v>
       </c>
       <c r="AF5" t="n">
         <v>8.178808542548637e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.59166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>613235.7518000746</v>
+        <v>734066.5351032219</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>492.1829963158316</v>
+        <v>589.7098608570585</v>
       </c>
       <c r="AB6" t="n">
-        <v>673.4264891406517</v>
+        <v>806.8670477875604</v>
       </c>
       <c r="AC6" t="n">
-        <v>609.1556101770808</v>
+        <v>729.8607891917291</v>
       </c>
       <c r="AD6" t="n">
-        <v>492182.9963158317</v>
+        <v>589709.8608570585</v>
       </c>
       <c r="AE6" t="n">
-        <v>673426.4891406517</v>
+        <v>806867.0477875604</v>
       </c>
       <c r="AF6" t="n">
         <v>8.219956394441281e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.49166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>609155.6101770808</v>
+        <v>729860.789191729</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>775.6463277487035</v>
+        <v>908.8553957898838</v>
       </c>
       <c r="AB2" t="n">
-        <v>1061.273524726694</v>
+        <v>1243.536048389958</v>
       </c>
       <c r="AC2" t="n">
-        <v>959.9870690335244</v>
+        <v>1124.854713245425</v>
       </c>
       <c r="AD2" t="n">
-        <v>775646.3277487034</v>
+        <v>908855.3957898838</v>
       </c>
       <c r="AE2" t="n">
-        <v>1061273.524726694</v>
+        <v>1243536.048389958</v>
       </c>
       <c r="AF2" t="n">
         <v>7.070340339405128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>959987.0690335245</v>
+        <v>1124854.713245425</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.0213914583704</v>
+        <v>563.7043879208563</v>
       </c>
       <c r="AB3" t="n">
-        <v>628.0533183879193</v>
+        <v>771.2852124357538</v>
       </c>
       <c r="AC3" t="n">
-        <v>568.1127911593439</v>
+        <v>697.6748342664791</v>
       </c>
       <c r="AD3" t="n">
-        <v>459021.3914583704</v>
+        <v>563704.3879208564</v>
       </c>
       <c r="AE3" t="n">
-        <v>628053.3183879192</v>
+        <v>771285.2124357538</v>
       </c>
       <c r="AF3" t="n">
         <v>9.693193064987271e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.60833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>568112.7911593439</v>
+        <v>697674.8342664791</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>459.1920589743041</v>
+        <v>563.87505543679</v>
       </c>
       <c r="AB4" t="n">
-        <v>628.2868332125391</v>
+        <v>771.5187272603737</v>
       </c>
       <c r="AC4" t="n">
-        <v>568.3240196568422</v>
+        <v>697.8860627639773</v>
       </c>
       <c r="AD4" t="n">
-        <v>459192.0589743041</v>
+        <v>563875.05543679</v>
       </c>
       <c r="AE4" t="n">
-        <v>628286.8332125391</v>
+        <v>771518.7272603736</v>
       </c>
       <c r="AF4" t="n">
         <v>9.714766520050549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>568324.0196568422</v>
+        <v>697886.0627639773</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>550.0341131007357</v>
+        <v>662.7779937167932</v>
       </c>
       <c r="AB2" t="n">
-        <v>752.5809393369037</v>
+        <v>906.8420907047652</v>
       </c>
       <c r="AC2" t="n">
-        <v>680.7556707405711</v>
+        <v>820.2943543287696</v>
       </c>
       <c r="AD2" t="n">
-        <v>550034.1131007357</v>
+        <v>662777.9937167931</v>
       </c>
       <c r="AE2" t="n">
-        <v>752580.9393369037</v>
+        <v>906842.0907047652</v>
       </c>
       <c r="AF2" t="n">
         <v>9.422441694501386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>680755.6707405711</v>
+        <v>820294.3543287696</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>454.1012556022448</v>
+        <v>557.5115226573599</v>
       </c>
       <c r="AB3" t="n">
-        <v>621.3213714484937</v>
+        <v>762.8118609723047</v>
       </c>
       <c r="AC3" t="n">
-        <v>562.0233317874704</v>
+        <v>690.0101675742781</v>
       </c>
       <c r="AD3" t="n">
-        <v>454101.2556022448</v>
+        <v>557511.52265736</v>
       </c>
       <c r="AE3" t="n">
-        <v>621321.3714484937</v>
+        <v>762811.8609723047</v>
       </c>
       <c r="AF3" t="n">
         <v>1.053776224451295e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.55416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>562023.3317874704</v>
+        <v>690010.1675742781</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>458.4541093487057</v>
+        <v>570.0915529417526</v>
       </c>
       <c r="AB2" t="n">
-        <v>627.2771379787556</v>
+        <v>780.0244133991778</v>
       </c>
       <c r="AC2" t="n">
-        <v>567.410688319055</v>
+        <v>705.5799781554996</v>
       </c>
       <c r="AD2" t="n">
-        <v>458454.1093487057</v>
+        <v>570091.5529417526</v>
       </c>
       <c r="AE2" t="n">
-        <v>627277.1379787556</v>
+        <v>780024.4133991777</v>
       </c>
       <c r="AF2" t="n">
         <v>1.113584208177796e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.90833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>567410.688319055</v>
+        <v>705579.9781554996</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>460.1875584454372</v>
+        <v>571.8250020384841</v>
       </c>
       <c r="AB3" t="n">
-        <v>629.6489195072805</v>
+        <v>782.3961949277027</v>
       </c>
       <c r="AC3" t="n">
-        <v>569.5561103473138</v>
+        <v>707.7254001837582</v>
       </c>
       <c r="AD3" t="n">
-        <v>460187.5584454372</v>
+        <v>571825.0020384841</v>
       </c>
       <c r="AE3" t="n">
-        <v>629648.9195072806</v>
+        <v>782396.1949277027</v>
       </c>
       <c r="AF3" t="n">
         <v>1.114380062752085e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.89166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>569556.1103473138</v>
+        <v>707725.4001837582</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>527.9293703678396</v>
+        <v>655.5100668907804</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.3362551373316</v>
+        <v>896.8977925831128</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.3974967523253</v>
+        <v>811.2991260629378</v>
       </c>
       <c r="AD2" t="n">
-        <v>527929.3703678396</v>
+        <v>655510.0668907805</v>
       </c>
       <c r="AE2" t="n">
-        <v>722336.2551373316</v>
+        <v>896897.7925831128</v>
       </c>
       <c r="AF2" t="n">
         <v>1.193718983618857e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.2625</v>
       </c>
       <c r="AH2" t="n">
-        <v>653397.4967523253</v>
+        <v>811299.1260629378</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1071.917819757171</v>
+        <v>1235.363732798378</v>
       </c>
       <c r="AB2" t="n">
-        <v>1466.645250668432</v>
+        <v>1690.279159616187</v>
       </c>
       <c r="AC2" t="n">
-        <v>1326.670686394174</v>
+        <v>1528.961288944118</v>
       </c>
       <c r="AD2" t="n">
-        <v>1071917.819757171</v>
+        <v>1235363.732798378</v>
       </c>
       <c r="AE2" t="n">
-        <v>1466645.250668432</v>
+        <v>1690279.159616187</v>
       </c>
       <c r="AF2" t="n">
         <v>5.470195266591174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.12916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1326670.686394174</v>
+        <v>1528961.288944118</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>541.6579384605748</v>
+        <v>647.4827255749639</v>
       </c>
       <c r="AB3" t="n">
-        <v>741.1202876634906</v>
+        <v>885.9144300535074</v>
       </c>
       <c r="AC3" t="n">
-        <v>670.3888075777429</v>
+        <v>801.3640002379119</v>
       </c>
       <c r="AD3" t="n">
-        <v>541657.9384605747</v>
+        <v>647482.7255749638</v>
       </c>
       <c r="AE3" t="n">
-        <v>741120.2876634905</v>
+        <v>885914.4300535074</v>
       </c>
       <c r="AF3" t="n">
         <v>8.334044315194567e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.74583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>670388.807577743</v>
+        <v>801364.0002379119</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>463.2088475915826</v>
+        <v>568.9653038684102</v>
       </c>
       <c r="AB4" t="n">
-        <v>633.7827806069065</v>
+        <v>778.4834297304279</v>
       </c>
       <c r="AC4" t="n">
-        <v>573.2954415455018</v>
+        <v>704.1860638053111</v>
       </c>
       <c r="AD4" t="n">
-        <v>463208.8475915826</v>
+        <v>568965.3038684102</v>
       </c>
       <c r="AE4" t="n">
-        <v>633782.7806069065</v>
+        <v>778483.4297304279</v>
       </c>
       <c r="AF4" t="n">
         <v>9.071755127228491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.97916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>573295.4415455018</v>
+        <v>704186.0638053111</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>464.4374043184163</v>
+        <v>570.1938605952439</v>
       </c>
       <c r="AB5" t="n">
-        <v>635.463746120658</v>
+        <v>780.1643952441796</v>
       </c>
       <c r="AC5" t="n">
-        <v>574.8159780698709</v>
+        <v>705.7066003296801</v>
       </c>
       <c r="AD5" t="n">
-        <v>464437.4043184163</v>
+        <v>570193.8605952439</v>
       </c>
       <c r="AE5" t="n">
-        <v>635463.746120658</v>
+        <v>780164.3952441795</v>
       </c>
       <c r="AF5" t="n">
         <v>9.070450214235507e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.97916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>574815.9780698708</v>
+        <v>705706.6003296801</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1650.929659436419</v>
+        <v>1855.392564088578</v>
       </c>
       <c r="AB2" t="n">
-        <v>2258.874793917126</v>
+        <v>2538.629960328944</v>
       </c>
       <c r="AC2" t="n">
-        <v>2043.29095393636</v>
+        <v>2296.346679904676</v>
       </c>
       <c r="AD2" t="n">
-        <v>1650929.659436419</v>
+        <v>1855392.564088578</v>
       </c>
       <c r="AE2" t="n">
-        <v>2258874.793917126</v>
+        <v>2538629.960328944</v>
       </c>
       <c r="AF2" t="n">
         <v>3.944925785107774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.51666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2043290.95393636</v>
+        <v>2296346.679904676</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>683.3474488859873</v>
+        <v>809.8513923569047</v>
       </c>
       <c r="AB3" t="n">
-        <v>934.9861267275736</v>
+        <v>1108.074403144584</v>
       </c>
       <c r="AC3" t="n">
-        <v>845.752363053964</v>
+        <v>1002.321337300657</v>
       </c>
       <c r="AD3" t="n">
-        <v>683347.4488859873</v>
+        <v>809851.3923569047</v>
       </c>
       <c r="AE3" t="n">
-        <v>934986.1267275736</v>
+        <v>1108074.403144584</v>
       </c>
       <c r="AF3" t="n">
         <v>6.850265169736314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.90833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>845752.363053964</v>
+        <v>1002321.337300657</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>538.8866149955128</v>
+        <v>645.9520662992911</v>
       </c>
       <c r="AB4" t="n">
-        <v>737.3284406364304</v>
+        <v>883.8201145046108</v>
       </c>
       <c r="AC4" t="n">
-        <v>666.9588491090547</v>
+        <v>799.4695632256115</v>
       </c>
       <c r="AD4" t="n">
-        <v>538886.6149955128</v>
+        <v>645952.0662992911</v>
       </c>
       <c r="AE4" t="n">
-        <v>737328.4406364304</v>
+        <v>883820.1145046109</v>
       </c>
       <c r="AF4" t="n">
         <v>7.913433870415454e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.69583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>666958.8491090547</v>
+        <v>799469.5632256116</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>485.4503447140651</v>
+        <v>582.8136326436644</v>
       </c>
       <c r="AB5" t="n">
-        <v>664.2145781954888</v>
+        <v>797.4313241058782</v>
       </c>
       <c r="AC5" t="n">
-        <v>600.8228710835261</v>
+        <v>721.3255977351051</v>
       </c>
       <c r="AD5" t="n">
-        <v>485450.3447140651</v>
+        <v>582813.6326436644</v>
       </c>
       <c r="AE5" t="n">
-        <v>664214.5781954888</v>
+        <v>797431.3241058781</v>
       </c>
       <c r="AF5" t="n">
         <v>8.374860877660301e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.55416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>600822.8710835262</v>
+        <v>721325.5977351051</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>485.9902417309475</v>
+        <v>583.3535296605467</v>
       </c>
       <c r="AB6" t="n">
-        <v>664.9532891125625</v>
+        <v>798.1700350229519</v>
       </c>
       <c r="AC6" t="n">
-        <v>601.4910804674616</v>
+        <v>721.9938071190406</v>
       </c>
       <c r="AD6" t="n">
-        <v>485990.2417309475</v>
+        <v>583353.5296605467</v>
       </c>
       <c r="AE6" t="n">
-        <v>664953.2891125625</v>
+        <v>798170.0350229519</v>
       </c>
       <c r="AF6" t="n">
         <v>8.378005184353623e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.54583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>601491.0804674616</v>
+        <v>721993.8071190406</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>612.455700144212</v>
+        <v>765.8927594180391</v>
       </c>
       <c r="AB2" t="n">
-        <v>837.9889085758517</v>
+        <v>1047.928262239613</v>
       </c>
       <c r="AC2" t="n">
-        <v>758.0124232661916</v>
+        <v>947.9154596680172</v>
       </c>
       <c r="AD2" t="n">
-        <v>612455.700144212</v>
+        <v>765892.7594180391</v>
       </c>
       <c r="AE2" t="n">
-        <v>837988.9085758517</v>
+        <v>1047928.262239613</v>
       </c>
       <c r="AF2" t="n">
         <v>1.16238372709832e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.17916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>758012.4232661916</v>
+        <v>947915.4596680172</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>617.6572373901871</v>
+        <v>740.3161543503909</v>
       </c>
       <c r="AB2" t="n">
-        <v>845.1058813114224</v>
+        <v>1012.933222825877</v>
       </c>
       <c r="AC2" t="n">
-        <v>764.4501621126136</v>
+        <v>916.2602977000817</v>
       </c>
       <c r="AD2" t="n">
-        <v>617657.2373901871</v>
+        <v>740316.1543503909</v>
       </c>
       <c r="AE2" t="n">
-        <v>845105.8813114224</v>
+        <v>1012933.222825877</v>
       </c>
       <c r="AF2" t="n">
         <v>8.513245013350037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.44166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>764450.1621126136</v>
+        <v>916260.2977000816</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>458.01466271436</v>
+        <v>561.7873639535346</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.6758677066265</v>
+        <v>768.6622556705358</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.8668024378098</v>
+        <v>695.3022088135905</v>
       </c>
       <c r="AD3" t="n">
-        <v>458014.66271436</v>
+        <v>561787.3639535346</v>
       </c>
       <c r="AE3" t="n">
-        <v>626675.8677066265</v>
+        <v>768662.2556705358</v>
       </c>
       <c r="AF3" t="n">
         <v>1.024635601502977e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.1375</v>
       </c>
       <c r="AH3" t="n">
-        <v>566866.8024378099</v>
+        <v>695302.2088135905</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>860.6515953707816</v>
+        <v>1013.462431719175</v>
       </c>
       <c r="AB2" t="n">
-        <v>1177.581482054955</v>
+        <v>1386.664009885133</v>
       </c>
       <c r="AC2" t="n">
-        <v>1065.19475815362</v>
+        <v>1254.322742976856</v>
       </c>
       <c r="AD2" t="n">
-        <v>860651.5953707816</v>
+        <v>1013462.431719175</v>
       </c>
       <c r="AE2" t="n">
-        <v>1177581.482054955</v>
+        <v>1386664.009885133</v>
       </c>
       <c r="AF2" t="n">
         <v>6.470541081916702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.80833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1065194.75815362</v>
+        <v>1254322.742976856</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>475.7549500447933</v>
+        <v>580.8252120663566</v>
       </c>
       <c r="AB3" t="n">
-        <v>650.948911478366</v>
+        <v>794.7106793490809</v>
       </c>
       <c r="AC3" t="n">
-        <v>588.8232609794054</v>
+        <v>718.8646074954478</v>
       </c>
       <c r="AD3" t="n">
-        <v>475754.9500447933</v>
+        <v>580825.2120663566</v>
       </c>
       <c r="AE3" t="n">
-        <v>650948.911478366</v>
+        <v>794710.6793490809</v>
       </c>
       <c r="AF3" t="n">
         <v>9.295009332997305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>588823.2609794054</v>
+        <v>718864.6074954477</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>462.5030191165001</v>
+        <v>557.9851788000176</v>
       </c>
       <c r="AB4" t="n">
-        <v>632.8170349483441</v>
+        <v>763.4599382029234</v>
       </c>
       <c r="AC4" t="n">
-        <v>572.4218652971601</v>
+        <v>690.5963932235886</v>
       </c>
       <c r="AD4" t="n">
-        <v>462503.0191165001</v>
+        <v>557985.1788000176</v>
       </c>
       <c r="AE4" t="n">
-        <v>632817.0349483441</v>
+        <v>763459.9382029234</v>
       </c>
       <c r="AF4" t="n">
         <v>9.502840575988976e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.29583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>572421.8652971601</v>
+        <v>690596.3932235886</v>
       </c>
     </row>
   </sheetData>
